--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,8 +422,10 @@
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>218</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -444,6 +446,41 @@
       </c>
       <c r="I2" t="n">
         <v>47227300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10524100</v>
       </c>
     </row>
   </sheetData>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,41 @@
         <v>10524100</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11108800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,41 @@
         <v>11108800</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6725700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,41 @@
         <v>6725700</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6354300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,6 +588,41 @@
         <v>6354300</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6830200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,6 +623,41 @@
         <v>6830200</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6500100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +658,41 @@
         <v>6500100</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I9" t="n">
+        <v>48061700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,6 +693,41 @@
         <v>48061700</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10773800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,6 +728,41 @@
         <v>10773800</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29343700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,6 +763,41 @@
         <v>29343700</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15227100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,6 +798,41 @@
         <v>15227100</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7733100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,6 +833,41 @@
         <v>7733100</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4145400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,6 +868,41 @@
         <v>4145400</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21017500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,6 +903,41 @@
         <v>21017500</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17394100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,6 +938,41 @@
         <v>17394100</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6317300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,6 +973,41 @@
         <v>6317300</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6117400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,6 +1008,41 @@
         <v>6117400</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6304900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1043,41 @@
         <v>6304900</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2808100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,6 +1078,41 @@
         <v>2808100</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6826200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,6 +1113,41 @@
         <v>6826200</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3575100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,6 +1148,41 @@
         <v>3575100</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5254600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,6 +1183,41 @@
         <v>5254600</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8698600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,6 +1288,41 @@
         <v>37398400</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8262100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1323,6 +1323,111 @@
         <v>8262100</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5046600</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9950500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21807600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,6 +1428,41 @@
         <v>21807600</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I31" t="n">
+        <v>17862600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,6 +1463,41 @@
         <v>17862600</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3744700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0218.xlsx
+++ b/data/0218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,6 +1498,111 @@
         <v>3744700</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6849500</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7723100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0218</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3672700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
